--- a/data/Offsets_Data_test_2.xlsx
+++ b/data/Offsets_Data_test_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/241f573490875f27/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/241f573490875f27/Desktop/Practicum (GEOG 778)/Carbon Offsets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{FFFF4C96-AB7B-4822-97B9-04DE5F9248FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53B41521-3D93-4344-BB3A-A148805A9511}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{FFFF4C96-AB7B-4822-97B9-04DE5F9248FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74FA69A5-F4E0-4015-9CF4-A7DF2D825808}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="4395" windowWidth="22680" windowHeight="11295" xr2:uid="{452CFE02-3850-46CD-B9F0-0867717D3531}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{452CFE02-3850-46CD-B9F0-0867717D3531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,6 +421,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -723,8 +727,8 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,10 +745,10 @@
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -794,10 +798,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -841,10 +845,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -891,10 +895,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -941,10 +945,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -991,10 +995,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -1041,10 +1045,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>51</v>
@@ -1091,10 +1095,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
@@ -1141,10 +1145,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -1191,10 +1195,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>73</v>
@@ -1244,10 +1248,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
@@ -1297,10 +1301,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>85</v>
@@ -1347,10 +1351,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>88</v>
       </c>
       <c r="C13" t="s">
         <v>89</v>
@@ -1397,10 +1401,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
         <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>95</v>
